--- a/doc/XXL-GLUE架构图.xlsx
+++ b/doc/XXL-GLUE架构图.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="460" windowWidth="28800" windowHeight="16080" tabRatio="500"/>
+    <workbookView xWindow="4420" yWindow="480" windowWidth="28800" windowHeight="16080" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="架构图" sheetId="1" r:id="rId1"/>
+    <sheet name="GlueHandler加载流程图" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -427,16 +428,8 @@
               <a:ea typeface="Heiti SC Light" charset="-122"/>
               <a:cs typeface="Heiti SC Light" charset="-122"/>
             </a:rPr>
-            <a:t>架构图</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:latin typeface="Heiti SC Light" charset="-122"/>
-            <a:ea typeface="Heiti SC Light" charset="-122"/>
-            <a:cs typeface="Heiti SC Light" charset="-122"/>
-          </a:endParaRPr>
+            <a:t> 架构图</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1027,11 +1020,6 @@
             </a:rPr>
             <a:t>更新消息</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
-            <a:latin typeface="Heiti SC Light" charset="-122"/>
-            <a:ea typeface="Heiti SC Light" charset="-122"/>
-            <a:cs typeface="Heiti SC Light" charset="-122"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1116,11 +1104,6 @@
             </a:rPr>
             <a:t>源码</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
-            <a:latin typeface="Heiti SC Light" charset="-122"/>
-            <a:ea typeface="Heiti SC Light" charset="-122"/>
-            <a:cs typeface="Heiti SC Light" charset="-122"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1252,11 +1235,6 @@
             </a:rPr>
             <a:t>源码</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
-            <a:latin typeface="Heiti SC Light" charset="-122"/>
-            <a:ea typeface="Heiti SC Light" charset="-122"/>
-            <a:cs typeface="Heiti SC Light" charset="-122"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1435,11 +1413,6 @@
             </a:rPr>
             <a:t>更新消息</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
-            <a:latin typeface="Heiti SC Light" charset="-122"/>
-            <a:ea typeface="Heiti SC Light" charset="-122"/>
-            <a:cs typeface="Heiti SC Light" charset="-122"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1795,6 +1768,1401 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="215900" y="190500"/>
+          <a:ext cx="6273800" cy="6413500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Heiti SC Light" charset="-122"/>
+              <a:ea typeface="Heiti SC Light" charset="-122"/>
+              <a:cs typeface="Heiti SC Light" charset="-122"/>
+            </a:rPr>
+            <a:t>GlueHandler</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Heiti SC Light" charset="-122"/>
+              <a:ea typeface="Heiti SC Light" charset="-122"/>
+              <a:cs typeface="Heiti SC Light" charset="-122"/>
+            </a:rPr>
+            <a:t> 执行流程</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="椭圆 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1168400" y="482600"/>
+          <a:ext cx="1041400" cy="673100"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="Heiti SC Light" charset="-122"/>
+              <a:ea typeface="Heiti SC Light" charset="-122"/>
+              <a:cs typeface="Heiti SC Light" charset="-122"/>
+            </a:rPr>
+            <a:t>Glue</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="Heiti SC Light" charset="-122"/>
+              <a:ea typeface="Heiti SC Light" charset="-122"/>
+              <a:cs typeface="Heiti SC Light" charset="-122"/>
+            </a:rPr>
+            <a:t>执行</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1028700" y="1727200"/>
+          <a:ext cx="1333500" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0">
+              <a:latin typeface="Heiti SC Light" charset="-122"/>
+              <a:ea typeface="Heiti SC Light" charset="-122"/>
+              <a:cs typeface="Heiti SC Light" charset="-122"/>
+            </a:rPr>
+            <a:t>Local</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" baseline="0">
+              <a:latin typeface="Heiti SC Light" charset="-122"/>
+              <a:ea typeface="Heiti SC Light" charset="-122"/>
+              <a:cs typeface="Heiti SC Light" charset="-122"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" baseline="0">
+              <a:latin typeface="Heiti SC Light" charset="-122"/>
+              <a:ea typeface="Heiti SC Light" charset="-122"/>
+              <a:cs typeface="Heiti SC Light" charset="-122"/>
+            </a:rPr>
+            <a:t>Cache</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="0">
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="914400" y="4178300"/>
+          <a:ext cx="1536700" cy="482600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0">
+              <a:latin typeface="Heiti SC Light" charset="-122"/>
+              <a:ea typeface="Heiti SC Light" charset="-122"/>
+              <a:cs typeface="Heiti SC Light" charset="-122"/>
+            </a:rPr>
+            <a:t>invoke</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0">
+              <a:latin typeface="Heiti SC Light" charset="-122"/>
+              <a:ea typeface="Heiti SC Light" charset="-122"/>
+              <a:cs typeface="Heiti SC Light" charset="-122"/>
+            </a:rPr>
+            <a:t> 公共方法</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="0">
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直线箭头连接符 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1689100" y="1206500"/>
+          <a:ext cx="0" cy="508000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="文本框 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1765300" y="2933700"/>
+          <a:ext cx="1028700" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>命中 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&amp;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t> 有效</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直线箭头连接符 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1689100" y="4711700"/>
+          <a:ext cx="0" cy="584200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="椭圆 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1206500" y="5334000"/>
+          <a:ext cx="977900" cy="711200"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="Heiti SC Light" charset="-122"/>
+              <a:ea typeface="Heiti SC Light" charset="-122"/>
+              <a:cs typeface="Heiti SC Light" charset="-122"/>
+            </a:rPr>
+            <a:t>返回</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="矩形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3670300" y="1727200"/>
+          <a:ext cx="2044700" cy="469900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0">
+              <a:latin typeface="Heiti SC Light" charset="-122"/>
+              <a:ea typeface="Heiti SC Light" charset="-122"/>
+              <a:cs typeface="Heiti SC Light" charset="-122"/>
+            </a:rPr>
+            <a:t>RPC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0">
+              <a:latin typeface="Heiti SC Light" charset="-122"/>
+              <a:ea typeface="Heiti SC Light" charset="-122"/>
+              <a:cs typeface="Heiti SC Light" charset="-122"/>
+            </a:rPr>
+            <a:t>加载源码、实例化</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="0">
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直线箭头连接符 19"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1689100" y="2273300"/>
+          <a:ext cx="12700" cy="1854200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直线箭头连接符 22"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2413000" y="1981200"/>
+          <a:ext cx="1143000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="矩形 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3670300" y="2540000"/>
+          <a:ext cx="2032000" cy="469900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0">
+              <a:latin typeface="Heiti SC Light" charset="-122"/>
+              <a:ea typeface="Heiti SC Light" charset="-122"/>
+              <a:cs typeface="Heiti SC Light" charset="-122"/>
+            </a:rPr>
+            <a:t>依赖注入</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="0">
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="矩形 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3657600" y="3390900"/>
+          <a:ext cx="2032000" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0">
+              <a:latin typeface="Heiti SC Light" charset="-122"/>
+              <a:ea typeface="Heiti SC Light" charset="-122"/>
+              <a:cs typeface="Heiti SC Light" charset="-122"/>
+            </a:rPr>
+            <a:t>加入 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0">
+              <a:latin typeface="Heiti SC Light" charset="-122"/>
+              <a:ea typeface="Heiti SC Light" charset="-122"/>
+              <a:cs typeface="Heiti SC Light" charset="-122"/>
+            </a:rPr>
+            <a:t>cache</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="0">
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直线箭头连接符 34"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4686300" y="2273300"/>
+          <a:ext cx="0" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直线箭头连接符 40"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4686300" y="3086100"/>
+          <a:ext cx="0" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="矩形 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3670300" y="4191000"/>
+          <a:ext cx="2032000" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0">
+              <a:latin typeface="Heiti SC Light" charset="-122"/>
+              <a:ea typeface="Heiti SC Light" charset="-122"/>
+              <a:cs typeface="Heiti SC Light" charset="-122"/>
+            </a:rPr>
+            <a:t>加入监听列表</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直线箭头连接符 43"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2514600" y="4419600"/>
+          <a:ext cx="1079500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="直线箭头连接符 52"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4699000" y="3898900"/>
+          <a:ext cx="0" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2065,8 +3433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2076,4 +3444,20 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/XXL-GLUE架构图.xlsx
+++ b/doc/XXL-GLUE架构图.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4420" yWindow="480" windowWidth="28800" windowHeight="16080" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2300" yWindow="1060" windowWidth="27120" windowHeight="15820" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="架构图" sheetId="1" r:id="rId1"/>
     <sheet name="GlueHandler加载流程图" sheetId="2" r:id="rId2"/>
+    <sheet name="广播组件" sheetId="3" r:id="rId3"/>
+    <sheet name="缓存更新策略" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -2209,11 +2211,6 @@
             </a:rPr>
             <a:t>执行</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
-            <a:latin typeface="Heiti SC Light" charset="-122"/>
-            <a:ea typeface="Heiti SC Light" charset="-122"/>
-            <a:cs typeface="Heiti SC Light" charset="-122"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2365,11 +2362,6 @@
             </a:rPr>
             <a:t> 公共方法</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="0">
-            <a:latin typeface="Heiti SC Light" charset="-122"/>
-            <a:ea typeface="Heiti SC Light" charset="-122"/>
-            <a:cs typeface="Heiti SC Light" charset="-122"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2489,7 +2481,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t> 有效</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2598,11 +2589,6 @@
             </a:rPr>
             <a:t>返回</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
-            <a:latin typeface="Heiti SC Light" charset="-122"/>
-            <a:ea typeface="Heiti SC Light" charset="-122"/>
-            <a:cs typeface="Heiti SC Light" charset="-122"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2672,11 +2658,6 @@
             </a:rPr>
             <a:t>加载源码、实例化</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="0">
-            <a:latin typeface="Heiti SC Light" charset="-122"/>
-            <a:ea typeface="Heiti SC Light" charset="-122"/>
-            <a:cs typeface="Heiti SC Light" charset="-122"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2832,11 +2813,6 @@
             </a:rPr>
             <a:t>依赖注入</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="0">
-            <a:latin typeface="Heiti SC Light" charset="-122"/>
-            <a:ea typeface="Heiti SC Light" charset="-122"/>
-            <a:cs typeface="Heiti SC Light" charset="-122"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3140,6 +3116,2072 @@
         <a:xfrm>
           <a:off x="4699000" y="3898900"/>
           <a:ext cx="0" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="266700" y="254000"/>
+          <a:ext cx="10452100" cy="6197600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Heiti SC Light" charset="-122"/>
+              <a:ea typeface="Heiti SC Light" charset="-122"/>
+              <a:cs typeface="Heiti SC Light" charset="-122"/>
+            </a:rPr>
+            <a:t>广播组件</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直线连接符 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="495300" y="825500"/>
+          <a:ext cx="927100" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直线连接符 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1397000" y="838200"/>
+          <a:ext cx="12700" cy="4724400"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直线连接符 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1435100" y="1701800"/>
+          <a:ext cx="1828800" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直线连接符 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1422400" y="3073400"/>
+          <a:ext cx="1828800" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直线连接符 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1422400" y="4368800"/>
+          <a:ext cx="1828800" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="文本框 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1676400" y="1193800"/>
+          <a:ext cx="3378200" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:latin typeface="Heiti SC Light" charset="-122"/>
+              <a:ea typeface="Heiti SC Light" charset="-122"/>
+              <a:cs typeface="Heiti SC Light" charset="-122"/>
+            </a:rPr>
+            <a:t>gluejob_wedhotel_picupload</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="文本框 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1676400" y="2476500"/>
+          <a:ext cx="2882900" cy="355600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:latin typeface="Heiti SC Light" charset="-122"/>
+              <a:ea typeface="Heiti SC Light" charset="-122"/>
+              <a:cs typeface="Heiti SC Light" charset="-122"/>
+            </a:rPr>
+            <a:t>gluejob_banquet_transfer</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="文本框 15"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1701800" y="3746500"/>
+          <a:ext cx="1219200" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:latin typeface="Heiti SC Light" charset="-122"/>
+              <a:ea typeface="Heiti SC Light" charset="-122"/>
+              <a:cs typeface="Heiti SC Light" charset="-122"/>
+            </a:rPr>
+            <a:t>...</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>526072</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>187528</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5479072" y="330200"/>
+          <a:ext cx="5036527" cy="5572328"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="241300" y="241300"/>
+          <a:ext cx="8902700" cy="5486400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Heiti SC Light" charset="-122"/>
+              <a:ea typeface="Heiti SC Light" charset="-122"/>
+              <a:cs typeface="Heiti SC Light" charset="-122"/>
+            </a:rPr>
+            <a:t>缓存更新策略</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="椭圆 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="711200" y="635000"/>
+          <a:ext cx="1104900" cy="622300"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:latin typeface="Heiti SC Light" charset="-122"/>
+              <a:ea typeface="Heiti SC Light" charset="-122"/>
+              <a:cs typeface="Heiti SC Light" charset="-122"/>
+            </a:rPr>
+            <a:t>Timeout</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200">
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="椭圆 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2794000" y="635000"/>
+          <a:ext cx="1168400" cy="622300"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:latin typeface="Heiti SC Light" charset="-122"/>
+              <a:ea typeface="Heiti SC Light" charset="-122"/>
+              <a:cs typeface="Heiti SC Light" charset="-122"/>
+            </a:rPr>
+            <a:t>广播通知</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200">
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="2070100"/>
+          <a:ext cx="3136900" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800">
+              <a:latin typeface="Heiti SC Light" charset="-122"/>
+              <a:ea typeface="Heiti SC Light" charset="-122"/>
+              <a:cs typeface="Heiti SC Light" charset="-122"/>
+            </a:rPr>
+            <a:t>缓存过期时间置为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800">
+              <a:latin typeface="Heiti SC Light" charset="-122"/>
+              <a:ea typeface="Heiti SC Light" charset="-122"/>
+              <a:cs typeface="Heiti SC Light" charset="-122"/>
+            </a:rPr>
+            <a:t>-1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800">
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800">
+              <a:latin typeface="Heiti SC Light" charset="-122"/>
+              <a:ea typeface="Heiti SC Light" charset="-122"/>
+              <a:cs typeface="Heiti SC Light" charset="-122"/>
+            </a:rPr>
+            <a:t>（避免重复更新）</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800">
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直线箭头连接符 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1270000" y="1308100"/>
+          <a:ext cx="12700" cy="711200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直线箭头连接符 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3378200" y="1308100"/>
+          <a:ext cx="12700" cy="711200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="矩形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="660400" y="4000500"/>
+          <a:ext cx="3136900" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800">
+              <a:latin typeface="Heiti SC Light" charset="-122"/>
+              <a:ea typeface="Heiti SC Light" charset="-122"/>
+              <a:cs typeface="Heiti SC Light" charset="-122"/>
+            </a:rPr>
+            <a:t>入缓存清理</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800">
+              <a:latin typeface="Heiti SC Light" charset="-122"/>
+              <a:ea typeface="Heiti SC Light" charset="-122"/>
+              <a:cs typeface="Heiti SC Light" charset="-122"/>
+            </a:rPr>
+            <a:t>消息</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800">
+              <a:latin typeface="Heiti SC Light" charset="-122"/>
+              <a:ea typeface="Heiti SC Light" charset="-122"/>
+              <a:cs typeface="Heiti SC Light" charset="-122"/>
+            </a:rPr>
+            <a:t>Queue</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800">
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直线箭头连接符 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2209800" y="3073400"/>
+          <a:ext cx="25400" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直线箭头连接符 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3517900" y="1308100"/>
+          <a:ext cx="12700" cy="711200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直线箭头连接符 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3225800" y="1308100"/>
+          <a:ext cx="12700" cy="711200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="矩形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5194300" y="4013200"/>
+          <a:ext cx="3136900" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800">
+              <a:latin typeface="Heiti SC Light" charset="-122"/>
+              <a:ea typeface="Heiti SC Light" charset="-122"/>
+              <a:cs typeface="Heiti SC Light" charset="-122"/>
+            </a:rPr>
+            <a:t>GlueHandler</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800">
+              <a:latin typeface="Heiti SC Light" charset="-122"/>
+              <a:ea typeface="Heiti SC Light" charset="-122"/>
+              <a:cs typeface="Heiti SC Light" charset="-122"/>
+            </a:rPr>
+            <a:t>加载流程</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800">
+              <a:latin typeface="Heiti SC Light" charset="-122"/>
+              <a:ea typeface="Heiti SC Light" charset="-122"/>
+              <a:cs typeface="Heiti SC Light" charset="-122"/>
+            </a:rPr>
+            <a:t>异步进行</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800">
+              <a:latin typeface="Heiti SC Light" charset="-122"/>
+              <a:ea typeface="Heiti SC Light" charset="-122"/>
+              <a:cs typeface="Heiti SC Light" charset="-122"/>
+            </a:rPr>
+            <a:t>...</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800">
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直线箭头连接符 15"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="14" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3886200" y="4445000"/>
+          <a:ext cx="1308100" cy="25400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="矩形 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5270500" y="2057400"/>
+          <a:ext cx="3136900" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800">
+              <a:latin typeface="Heiti SC Light" charset="-122"/>
+              <a:ea typeface="Heiti SC Light" charset="-122"/>
+              <a:cs typeface="Heiti SC Light" charset="-122"/>
+            </a:rPr>
+            <a:t>覆盖更新</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800">
+              <a:latin typeface="Heiti SC Light" charset="-122"/>
+              <a:ea typeface="Heiti SC Light" charset="-122"/>
+              <a:cs typeface="Heiti SC Light" charset="-122"/>
+            </a:rPr>
+            <a:t>GlueHandler</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800">
+              <a:latin typeface="Heiti SC Light" charset="-122"/>
+              <a:ea typeface="Heiti SC Light" charset="-122"/>
+              <a:cs typeface="Heiti SC Light" charset="-122"/>
+            </a:rPr>
+            <a:t>缓存</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800">
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直线箭头连接符 22"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6832600" y="3048000"/>
+          <a:ext cx="0" cy="901700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="椭圆 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6299200" y="723900"/>
+          <a:ext cx="1104900" cy="622300"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:latin typeface="Heiti SC Light" charset="-122"/>
+              <a:ea typeface="Heiti SC Light" charset="-122"/>
+              <a:cs typeface="Heiti SC Light" charset="-122"/>
+            </a:rPr>
+            <a:t>Finish</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:latin typeface="Heiti SC Light" charset="-122"/>
+            <a:ea typeface="Heiti SC Light" charset="-122"/>
+            <a:cs typeface="Heiti SC Light" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直线箭头连接符 27"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6845300" y="1422400"/>
+          <a:ext cx="0" cy="558800"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3450,7 +5492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
@@ -3460,4 +5502,36 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>